--- a/rhla_analysis/rhla1_6_normal_result/k4.xlsx
+++ b/rhla_analysis/rhla1_6_normal_result/k4.xlsx
@@ -457,21 +457,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.006519627802795743</v>
+        <v>0.006519627802795806</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2888015045578695</v>
+        <v>0.2888015045578694</v>
       </c>
       <c r="C2" t="n">
         <v>0.1191446028513238</v>
       </c>
       <c r="D2" t="n">
-        <v>44.29723801626003</v>
+        <v>44.29723801625959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02301829614503513</v>
+        <v>0.02301829614503521</v>
       </c>
       <c r="B3" t="n">
         <v>0.2634876539374705</v>
@@ -480,12 +480,12 @@
         <v>0.1157501697216565</v>
       </c>
       <c r="D3" t="n">
-        <v>11.44687913811131</v>
+        <v>11.44687913811127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01221245269867325</v>
+        <v>0.01221245269867323</v>
       </c>
       <c r="B4" t="n">
         <v>0.2659107577487788</v>
@@ -494,12 +494,12 @@
         <v>0.1123557365919891</v>
       </c>
       <c r="D4" t="n">
-        <v>21.77373901130174</v>
+        <v>21.77373901130177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.009050031024514323</v>
+        <v>0.009050031024514394</v>
       </c>
       <c r="B5" t="n">
         <v>0.2765525066289184</v>
@@ -508,12 +508,12 @@
         <v>0.121520706042091</v>
       </c>
       <c r="D5" t="n">
-        <v>30.55818326808</v>
+        <v>30.55818326807976</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.007845479619465382</v>
+        <v>0.007845479619465341</v>
       </c>
       <c r="B6" t="n">
         <v>0.279860718227483</v>
@@ -522,12 +522,12 @@
         <v>0.1082824168363883</v>
       </c>
       <c r="D6" t="n">
-        <v>35.6715882013283</v>
+        <v>35.67158820132849</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01230626570023549</v>
+        <v>0.01230626570023551</v>
       </c>
       <c r="B7" t="n">
         <v>0.2788437664741397</v>
@@ -536,12 +536,12 @@
         <v>0.121520706042091</v>
       </c>
       <c r="D7" t="n">
-        <v>22.65868243595649</v>
+        <v>22.65868243595646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.008345383601951906</v>
+        <v>0.008345383601951851</v>
       </c>
       <c r="B8" t="n">
         <v>0.2794651947171438</v>
@@ -550,12 +550,12 @@
         <v>0.1238968092328581</v>
       </c>
       <c r="D8" t="n">
-        <v>33.48739950692974</v>
+        <v>33.48739950692996</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.007880911853021274</v>
+        <v>0.007880911853021304</v>
       </c>
       <c r="B9" t="n">
         <v>0.2809132905402987</v>
@@ -564,12 +564,12 @@
         <v>0.1208418194161575</v>
       </c>
       <c r="D9" t="n">
-        <v>35.64477001891679</v>
+        <v>35.64477001891666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01420588640040007</v>
+        <v>0.01420588640040015</v>
       </c>
       <c r="B10" t="n">
         <v>0.2978773260410825</v>
@@ -578,15 +578,15 @@
         <v>0.1242362525458248</v>
       </c>
       <c r="D10" t="n">
-        <v>20.96858426466747</v>
+        <v>20.96858426466736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02107315376422659</v>
+        <v>0.0210731537642266</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2754555214559195</v>
+        <v>0.2754555214559196</v>
       </c>
       <c r="C11" t="n">
         <v>0.1249151391717583</v>
